--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosusteemide arendamine II/ISA2_DanielAntonov/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosusteemide arendamine 2/ISA_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE52753B-E195-AC4A-8D6E-BD74D83C7A0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F91838-DF4C-A74D-8CD3-BA4E3E1957BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -113,6 +114,21 @@
   </si>
   <si>
     <t>Labor 1-6, youtube asp.net mvc,  github seadistamine,  louna, ohtusook, chat</t>
+  </si>
+  <si>
+    <t>Uue repositooriumi loomine githubis, sinna kolme nadala materjali ulekanne, Labor 1-6 uuesti, kuna vanas oli liiga palju errore, louna</t>
+  </si>
+  <si>
+    <t>Labor 7-8, 8 edasi ei saanud minna kuna visual studios for mac ei ole sql server ning selle jaoks on vaja Dockerit mille tombasin endale alla ja uritan vabal ajal seadistada, et edasi minna</t>
+  </si>
+  <si>
+    <t>HTML/CSS treehouse course, chat</t>
+  </si>
+  <si>
+    <t>ASP.NET MVC course treehouse, introducing+controllers, chat</t>
+  </si>
+  <si>
+    <t>Vigade arutlemine</t>
   </si>
 </sst>
 </file>
@@ -894,7 +910,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="A1:K21"/>
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1325,14 +1341,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E77E-2C12-3446-826E-E6451F2720D5}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="141" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1488,7 +1504,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1513,6 +1529,421 @@
       </c>
       <c r="H9" s="31" t="s">
         <v>26</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43521</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
+        <f>(D10-C10)*24*60 - E10</f>
+        <v>330.00000000000011</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <f>(D11-C11)*24*60 - E11</f>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <f>(D15-C15)*24*60 - E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30">
+        <f>SUM(F7:F18)</f>
+        <v>1242.0000000000002</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E06231-9C08-7E4F-988B-D426EC5701CB}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44">
+        <v>43523</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43523</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E7" s="20">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21">
+        <f>(D7-C7)*24*60 - E7</f>
+        <v>135.00000000000011</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43524</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
+        <v>115.00000000000006</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43525</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
+        <f>(D9-C9)*24*60 - E9</f>
+        <v>180</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
@@ -1698,7 +2129,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>832.00000000000011</v>
+        <v>430.00000000000017</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -1710,12 +2141,6 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosusteemide arendamine 2/ISA_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Desktop\ISA_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F91838-DF4C-A74D-8CD3-BA4E3E1957BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967FE89-727C-4314-BFE5-5AEEC6B22315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -129,6 +128,9 @@
   </si>
   <si>
     <t>Vigade arutlemine</t>
+  </si>
+  <si>
+    <t>Labor6-18, louna, chat</t>
   </si>
 </sst>
 </file>
@@ -595,7 +597,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -913,21 +915,21 @@
       <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -941,7 +943,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -953,7 +955,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -973,7 +975,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -985,7 +987,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1044,7 +1046,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1071,7 +1073,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1096,7 +1098,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1123,7 +1125,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1150,7 +1152,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1177,7 +1179,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1204,7 +1206,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1229,7 +1231,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1248,7 +1250,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1267,7 +1269,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1286,7 +1288,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1305,7 +1307,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
@@ -1345,21 +1347,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="141" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1375,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1385,7 +1387,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1407,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1417,7 +1419,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1450,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1477,7 +1479,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1504,7 +1506,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1562,7 +1564,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1589,7 +1591,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1597,7 +1599,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1635,7 +1637,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1654,7 +1656,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1673,7 +1675,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1692,7 +1694,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1711,7 +1713,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
@@ -1728,13 +1730,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1762,19 +1764,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1790,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1800,7 +1802,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +1822,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1832,7 +1834,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -1863,7 +1865,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1892,7 +1894,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1948,26 +1950,36 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7">
+        <v>43527</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45</v>
+      </c>
       <c r="F10" s="5">
         <f>(D10-C10)*24*60 - E10</f>
-        <v>0</v>
+        <v>454.99999999999994</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1986,7 +1998,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2005,7 +2017,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2024,7 +2036,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2043,7 +2055,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2062,7 +2074,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2081,7 +2093,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2100,7 +2112,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -2119,7 +2131,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
@@ -2129,14 +2141,14 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>430.00000000000017</v>
+        <v>885.00000000000011</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Desktop\ISA_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967FE89-727C-4314-BFE5-5AEEC6B22315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA3638-1B72-4677-95DC-849FADE4C30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Labor6-18, louna, chat</t>
+  </si>
+  <si>
+    <t>Labor 19-24</t>
+  </si>
+  <si>
+    <t>Labor 25-27</t>
+  </si>
+  <si>
+    <t>MVC</t>
   </si>
 </sst>
 </file>
@@ -1761,13 +1770,13 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1983,18 +1992,26 @@
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7">
+        <v>43528</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>0</v>
+        <v>134.99999999999991</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
@@ -2003,17 +2020,23 @@
         <v>6</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f>(D12-C12)*24*60 - E12</f>
-        <v>0</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
@@ -2022,17 +2045,23 @@
         <v>7</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
@@ -2141,7 +2170,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>885.00000000000011</v>
+        <v>1210</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Desktop\ISA_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar\Desktop\ISA_2\ISA_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA3638-1B72-4677-95DC-849FADE4C30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -140,14 +140,36 @@
   </si>
   <si>
     <t>MVC</t>
+  </si>
+  <si>
+    <t>Creating ASP.NET MVC core web app and creating a data model</t>
+  </si>
+  <si>
+    <t>Adding sort, filter, page, group and CRUD, chat</t>
+  </si>
+  <si>
+    <t>Reading Pragmatic Programmer + Conspect</t>
+  </si>
+  <si>
+    <t>Pragmatic Programmer analyze</t>
+  </si>
+  <si>
+    <t>Adding Migrataions</t>
+  </si>
+  <si>
+    <t>Creating complex data model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Tables </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -496,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -602,6 +624,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -917,28 +945,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="10" width="3.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -952,7 +980,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -964,7 +992,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -984,7 +1012,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -996,7 +1024,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1055,7 +1083,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1082,7 +1110,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1107,7 +1135,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1134,7 +1162,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1161,7 +1189,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1188,7 +1216,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1215,7 +1243,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1240,7 +1268,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1259,7 +1287,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1278,7 +1306,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1297,7 +1325,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1316,7 +1344,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
@@ -1349,28 +1377,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E77E-2C12-3446-826E-E6451F2720D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="141" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1412,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1396,7 +1424,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1444,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1428,7 +1456,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +1487,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1488,7 +1516,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1515,7 +1543,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1544,7 +1572,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1573,7 +1601,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1600,7 +1628,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1608,7 +1636,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1627,7 +1655,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1646,7 +1674,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1665,7 +1693,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1684,7 +1712,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1703,7 +1731,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -1722,7 +1750,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
@@ -1739,13 +1767,13 @@
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1766,26 +1794,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E06231-9C08-7E4F-988B-D426EC5701CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1827,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1811,7 +1839,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1859,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1843,7 +1871,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1902,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -1903,7 +1931,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1932,7 +1960,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1959,7 +1987,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1988,7 +2016,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2015,7 +2043,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2040,7 +2068,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -2065,7 +2093,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -2084,7 +2112,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -2103,7 +2131,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -2122,7 +2150,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -2141,7 +2169,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>12</v>
       </c>
@@ -2160,7 +2188,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
@@ -2177,7 +2205,440 @@
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="51">
+        <v>43529</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43530</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21">
+        <f>(D7-C7)*24*60 - E7</f>
+        <v>169.99999999999989</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43531</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
+        <v>275</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E9" s="6">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <f>(D9-C9)*24*60 - E9</f>
+        <v>330.00000000000006</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43532</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5">
+        <f>(D10-C10)*24*60 - E10</f>
+        <v>165.00000000000006</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43533</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5">
+        <f>(D11-C11)*24*60 - E11</f>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43535</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <f>(D12-C12)*24*60 - E12</f>
+        <v>40</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>80.000000000000028</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <f>(D15-C15)*24*60 - E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30">
+        <f>SUM(F7:F18)</f>
+        <v>1110</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="Week3" sheetId="1" r:id="rId1"/>
+    <sheet name="Week4" sheetId="2" r:id="rId2"/>
+    <sheet name="Week5" sheetId="3" r:id="rId3"/>
+    <sheet name="Week6" sheetId="4" r:id="rId4"/>
+    <sheet name="Week7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -161,6 +162,24 @@
   </si>
   <si>
     <t xml:space="preserve">Data Tables </t>
+  </si>
+  <si>
+    <t>Finishing last week homework</t>
+  </si>
+  <si>
+    <t>Writing conspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showing what is done and solving problems with the code </t>
+  </si>
+  <si>
+    <t>TreeHouse MVC videos</t>
+  </si>
+  <si>
+    <t>ASP.NET Razor Pages</t>
+  </si>
+  <si>
+    <t>Lecture</t>
   </si>
 </sst>
 </file>
@@ -169,7 +188,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -626,10 +645,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2229,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2656,4 +2675,438 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="51">
+        <v>43542</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43536</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21">
+        <f>(D7-C7)*24*60 - E7</f>
+        <v>170.00000000000003</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43538</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
+        <v>225.00000000000011</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
+        <f>(D9-C9)*24*60 - E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43539</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5">
+        <f>(D10-C10)*24*60 - E10</f>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5">
+        <f>(D11-C11)*24*60 - E11</f>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43542</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <f>(D12-C12)*24*60 - E12</f>
+        <v>130</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>105.00000000000011</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <f>(D15-C15)*24*60 - E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30">
+        <f>SUM(F7:F18)</f>
+        <v>830.00000000000011</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>